--- a/Analyzed/try6/data_2017.xlsx
+++ b/Analyzed/try6/data_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>57.27857523493425</v>
       </c>
       <c r="N2">
-        <v>-114.296</v>
+        <v>314.048</v>
       </c>
       <c r="O2">
-        <v>1070.01</v>
+        <v>-229.99</v>
       </c>
       <c r="P2">
-        <v>564.9642647999999</v>
+        <v>463.2476350502812</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,28 +576,31 @@
         <v>8</v>
       </c>
       <c r="V2">
+        <v>6</v>
+      </c>
+      <c r="W2">
         <v>9</v>
       </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
       <c r="X2">
         <v>1</v>
       </c>
       <c r="Y2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <v>1</v>
       </c>
       <c r="AB2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>57.07285333693019</v>
       </c>
       <c r="N3">
-        <v>99.12</v>
+        <v>385.616</v>
       </c>
       <c r="O3">
-        <v>993.4400000000001</v>
+        <v>-156.56</v>
       </c>
       <c r="P3">
-        <v>596.7700487999999</v>
+        <v>512.8479952752391</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,10 +670,10 @@
         <v>8</v>
       </c>
       <c r="V3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -674,7 +682,7 @@
         <v>1</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>1</v>
@@ -683,7 +691,10 @@
         <v>1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>59.73669378367577</v>
       </c>
       <c r="N4">
-        <v>220.612</v>
+        <v>456.96</v>
       </c>
       <c r="O4">
-        <v>954.29</v>
+        <v>-95.71000000000001</v>
       </c>
       <c r="P4">
-        <v>529.957512</v>
+        <v>416.655585672152</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -756,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -771,10 +782,13 @@
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>67.51044818476016</v>
       </c>
       <c r="N5">
-        <v>148.232</v>
+        <v>325.472</v>
       </c>
       <c r="O5">
-        <v>854.72</v>
+        <v>-95.28</v>
       </c>
       <c r="P5">
-        <v>543.8787768</v>
+        <v>434.814493847072</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,16 +858,16 @@
         <v>2</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -865,6 +879,9 @@
         <v>2</v>
       </c>
       <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
@@ -911,13 +928,13 @@
         <v>66.67970320100136</v>
       </c>
       <c r="N6">
-        <v>1.707999999999983</v>
+        <v>266.784</v>
       </c>
       <c r="O6">
-        <v>1018.41</v>
+        <v>-181.59</v>
       </c>
       <c r="P6">
-        <v>529.0554527999999</v>
+        <v>414.4496357734262</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,10 +952,10 @@
         <v>2</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -947,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6">
         <v>1</v>
@@ -957,6 +974,9 @@
       </c>
       <c r="AC6">
         <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>77.01033248472955</v>
       </c>
       <c r="N7">
-        <v>201.18</v>
+        <v>414.9040000000001</v>
       </c>
       <c r="O7">
-        <v>1005.08</v>
+        <v>-94.92</v>
       </c>
       <c r="P7">
-        <v>546.8082552</v>
+        <v>437.1292149737779</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1029,16 +1049,16 @@
         <v>4</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X7">
         <v>3</v>
       </c>
       <c r="Y7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1048,6 +1068,9 @@
       </c>
       <c r="AC7">
         <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>69.0170027011323</v>
       </c>
       <c r="N8">
-        <v>23.29599999999998</v>
+        <v>385.5600000000001</v>
       </c>
       <c r="O8">
-        <v>1232.27</v>
+        <v>-217.73</v>
       </c>
       <c r="P8">
-        <v>477.9817128</v>
+        <v>353.2951439676605</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,16 +1140,16 @@
         <v>3</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <v>2</v>
@@ -1135,9 +1158,12 @@
         <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>83.12167418822231</v>
       </c>
       <c r="N9">
-        <v>109.592</v>
+        <v>355.712</v>
       </c>
       <c r="O9">
-        <v>1098.28</v>
+        <v>-151.72</v>
       </c>
       <c r="P9">
-        <v>424.8614808</v>
+        <v>285.4566244438798</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,11 +1234,11 @@
         <v>7</v>
       </c>
       <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
         <v>4</v>
       </c>
-      <c r="W9">
-        <v>5</v>
-      </c>
       <c r="X9">
         <v>2</v>
       </c>
@@ -1220,16 +1246,19 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA9">
         <v>2</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>2</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>71.82114438629462</v>
       </c>
       <c r="N10">
-        <v>89.96400000000003</v>
+        <v>261.016</v>
       </c>
       <c r="O10">
-        <v>1127.23</v>
+        <v>-172.77</v>
       </c>
       <c r="P10">
-        <v>469.2422016</v>
+        <v>339.0518711304678</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,28 +1328,31 @@
         <v>6</v>
       </c>
       <c r="V10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1366,13 +1398,13 @@
         <v>67.87368312479876</v>
       </c>
       <c r="N11">
-        <v>34.244</v>
+        <v>257.656</v>
       </c>
       <c r="O11">
-        <v>983.58</v>
+        <v>-166.42</v>
       </c>
       <c r="P11">
-        <v>469.9384344</v>
+        <v>349.3565858812176</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="V11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X11">
         <v>2</v>
@@ -1402,15 +1434,18 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
         <v>1</v>
       </c>
     </row>
